--- a/uploads/00 BHA-BPRM_Base Registro Nacional_stage_upload_10_casos.xlsx
+++ b/uploads/00 BHA-BPRM_Base Registro Nacional_stage_upload_10_casos.xlsx
@@ -512,9 +512,6 @@
     <t>VALLES</t>
   </si>
   <si>
-    <t>1981-01-31</t>
-  </si>
-  <si>
     <t>14293424</t>
   </si>
   <si>
@@ -966,6 +963,9 @@
   </si>
   <si>
     <t>20861154PPP</t>
+  </si>
+  <si>
+    <t>2091-03-05</t>
   </si>
 </sst>
 </file>
@@ -1044,9 +1044,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Estilo 1" xfId="1"/>
@@ -1419,7 +1420,7 @@
   <dimension ref="A1:EN10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="W1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X1" t="s">
         <v>14</v>
@@ -1754,7 +1755,7 @@
         <v>22</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:143" x14ac:dyDescent="0.25">
@@ -1804,7 +1805,7 @@
         <v>50</v>
       </c>
       <c r="W2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y2" t="s">
         <v>32</v>
@@ -2092,7 +2093,7 @@
         <v>18</v>
       </c>
       <c r="EM2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:143" x14ac:dyDescent="0.25">
@@ -2292,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="EM3" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:143" x14ac:dyDescent="0.25">
@@ -2495,7 +2496,7 @@
         <v>18</v>
       </c>
       <c r="EM4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:143" x14ac:dyDescent="0.25">
@@ -2722,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="EM5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.25">
@@ -2768,20 +2769,20 @@
       <c r="T6" t="s">
         <v>12</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="W6" t="s">
         <v>158</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>159</v>
-      </c>
-      <c r="X6" t="s">
-        <v>160</v>
       </c>
       <c r="AB6" t="s">
         <v>15</v>
       </c>
       <c r="AC6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD6" t="s">
         <v>18</v>
@@ -2805,7 +2806,7 @@
         <v>55</v>
       </c>
       <c r="AM6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN6" t="s">
         <v>5</v>
@@ -2838,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="BA6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BB6" t="s">
         <v>18</v>
@@ -2856,19 +2857,19 @@
         <v>142</v>
       </c>
       <c r="BM6" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN6" t="s">
         <v>164</v>
       </c>
-      <c r="BN6" t="s">
-        <v>165</v>
-      </c>
       <c r="BP6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BQ6" t="s">
         <v>29</v>
       </c>
       <c r="BR6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BS6" t="s">
         <v>31</v>
@@ -2877,16 +2878,16 @@
         <v>64</v>
       </c>
       <c r="BV6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BW6" t="s">
         <v>92</v>
       </c>
       <c r="BX6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BY6" t="s">
         <v>170</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>171</v>
       </c>
       <c r="BZ6" t="s">
         <v>156</v>
@@ -2895,25 +2896,25 @@
         <v>29</v>
       </c>
       <c r="CB6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CC6" t="s">
         <v>38</v>
       </c>
       <c r="CE6" t="s">
+        <v>172</v>
+      </c>
+      <c r="CF6" t="s">
         <v>173</v>
       </c>
-      <c r="CF6" t="s">
+      <c r="CG6" t="s">
         <v>174</v>
       </c>
-      <c r="CG6" t="s">
+      <c r="CH6" t="s">
         <v>175</v>
       </c>
-      <c r="CH6" t="s">
-        <v>176</v>
-      </c>
       <c r="CI6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CJ6" t="s">
         <v>156</v>
@@ -2922,25 +2923,25 @@
         <v>29</v>
       </c>
       <c r="CL6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CM6" t="s">
         <v>38</v>
       </c>
       <c r="CO6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CP6" t="s">
+        <v>177</v>
+      </c>
+      <c r="CQ6" t="s">
         <v>178</v>
       </c>
-      <c r="CQ6" t="s">
-        <v>179</v>
-      </c>
       <c r="CR6" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS6" t="s">
         <v>165</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>166</v>
       </c>
       <c r="CT6" t="s">
         <v>156</v>
@@ -2949,43 +2950,43 @@
         <v>29</v>
       </c>
       <c r="CV6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="CW6" t="s">
         <v>38</v>
       </c>
       <c r="CY6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CZ6" t="s">
+        <v>180</v>
+      </c>
+      <c r="DA6" t="s">
         <v>181</v>
       </c>
-      <c r="DA6" t="s">
+      <c r="DB6" t="s">
         <v>182</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>183</v>
       </c>
       <c r="DC6" t="s">
         <v>157</v>
       </c>
       <c r="DD6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="DE6" t="s">
         <v>12</v>
       </c>
       <c r="DF6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DG6" t="s">
         <v>185</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>186</v>
       </c>
       <c r="DI6" t="s">
         <v>64</v>
       </c>
       <c r="DJ6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="EG6" t="s">
         <v>5</v>
@@ -3003,7 +3004,7 @@
         <v>18</v>
       </c>
       <c r="EM6" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.25">
@@ -3041,7 +3042,7 @@
         <v>7</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q7" t="s">
         <v>9</v>
@@ -3050,13 +3051,13 @@
         <v>12</v>
       </c>
       <c r="U7" t="s">
+        <v>190</v>
+      </c>
+      <c r="W7" t="s">
         <v>191</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>192</v>
-      </c>
-      <c r="X7" t="s">
-        <v>193</v>
       </c>
       <c r="AB7" t="s">
         <v>15</v>
@@ -3086,7 +3087,7 @@
         <v>55</v>
       </c>
       <c r="AM7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN7" t="s">
         <v>5</v>
@@ -3119,7 +3120,7 @@
         <v>22</v>
       </c>
       <c r="BF7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BG7" t="s">
         <v>17</v>
@@ -3137,19 +3138,19 @@
         <v>25</v>
       </c>
       <c r="BM7" t="s">
+        <v>195</v>
+      </c>
+      <c r="BN7" t="s">
         <v>196</v>
       </c>
-      <c r="BN7" t="s">
-        <v>197</v>
-      </c>
       <c r="BP7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BQ7" t="s">
         <v>29</v>
       </c>
       <c r="BR7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BS7" t="s">
         <v>31</v>
@@ -3158,25 +3159,25 @@
         <v>64</v>
       </c>
       <c r="BV7" t="s">
+        <v>200</v>
+      </c>
+      <c r="BW7" t="s">
         <v>201</v>
       </c>
-      <c r="BW7" t="s">
+      <c r="BX7" t="s">
         <v>202</v>
       </c>
-      <c r="BX7" t="s">
-        <v>203</v>
-      </c>
       <c r="BY7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BZ7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CA7" t="s">
         <v>29</v>
       </c>
       <c r="CB7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CC7" t="s">
         <v>38</v>
@@ -3185,73 +3186,73 @@
         <v>39</v>
       </c>
       <c r="CF7" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG7" t="s">
         <v>205</v>
       </c>
-      <c r="CG7" t="s">
+      <c r="CH7" t="s">
         <v>206</v>
       </c>
-      <c r="CH7" t="s">
-        <v>207</v>
-      </c>
       <c r="CI7" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ7" t="s">
         <v>189</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>190</v>
       </c>
       <c r="CK7" t="s">
         <v>29</v>
       </c>
       <c r="CL7" t="s">
+        <v>207</v>
+      </c>
+      <c r="CM7" t="s">
         <v>208</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>209</v>
       </c>
       <c r="CO7" t="s">
         <v>64</v>
       </c>
       <c r="CP7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CQ7" t="s">
         <v>114</v>
       </c>
       <c r="CR7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CS7" t="s">
         <v>11</v>
       </c>
       <c r="CT7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CU7" t="s">
         <v>12</v>
       </c>
       <c r="CV7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CW7" t="s">
         <v>73</v>
       </c>
       <c r="CX7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CY7" t="s">
         <v>64</v>
       </c>
       <c r="CZ7" t="s">
+        <v>214</v>
+      </c>
+      <c r="DA7" t="s">
         <v>215</v>
       </c>
-      <c r="DA7" t="s">
-        <v>216</v>
-      </c>
       <c r="DB7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="DC7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="DD7" t="s">
         <v>11</v>
@@ -3260,7 +3261,7 @@
         <v>12</v>
       </c>
       <c r="DF7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="DG7" t="s">
         <v>73</v>
@@ -3272,16 +3273,16 @@
         <v>64</v>
       </c>
       <c r="DJ7" t="s">
+        <v>217</v>
+      </c>
+      <c r="DK7" t="s">
         <v>218</v>
-      </c>
-      <c r="DK7" t="s">
-        <v>219</v>
       </c>
       <c r="DL7" t="s">
         <v>114</v>
       </c>
       <c r="DM7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="DN7" t="s">
         <v>11</v>
@@ -3290,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="DP7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="DQ7" t="s">
         <v>73</v>
@@ -3302,16 +3303,16 @@
         <v>64</v>
       </c>
       <c r="DT7" t="s">
+        <v>221</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>205</v>
+      </c>
+      <c r="DV7" t="s">
         <v>222</v>
       </c>
-      <c r="DU7" t="s">
-        <v>206</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>223</v>
-      </c>
       <c r="DW7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="DX7" t="s">
         <v>11</v>
@@ -3320,7 +3321,7 @@
         <v>29</v>
       </c>
       <c r="DZ7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="EA7" t="s">
         <v>73</v>
@@ -3332,16 +3333,16 @@
         <v>39</v>
       </c>
       <c r="ED7" t="s">
+        <v>224</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ7" t="s">
         <v>225</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>5</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>5</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>226</v>
       </c>
       <c r="EK7" t="s">
         <v>18</v>
@@ -3350,7 +3351,7 @@
         <v>17</v>
       </c>
       <c r="EM7" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:143" x14ac:dyDescent="0.25">
@@ -3385,10 +3386,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" t="s">
         <v>227</v>
-      </c>
-      <c r="P8" t="s">
-        <v>228</v>
       </c>
       <c r="Q8" t="s">
         <v>87</v>
@@ -3397,13 +3398,13 @@
         <v>12</v>
       </c>
       <c r="U8" t="s">
+        <v>228</v>
+      </c>
+      <c r="W8" t="s">
         <v>229</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>230</v>
-      </c>
-      <c r="X8" t="s">
-        <v>231</v>
       </c>
       <c r="AB8" t="s">
         <v>15</v>
@@ -3433,7 +3434,7 @@
         <v>55</v>
       </c>
       <c r="AM8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN8" t="s">
         <v>5</v>
@@ -3484,19 +3485,19 @@
         <v>108</v>
       </c>
       <c r="BM8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN8" t="s">
         <v>233</v>
       </c>
-      <c r="BN8" t="s">
-        <v>234</v>
-      </c>
       <c r="BP8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BQ8" t="s">
         <v>29</v>
       </c>
       <c r="BR8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BS8" t="s">
         <v>31</v>
@@ -3505,16 +3506,16 @@
         <v>64</v>
       </c>
       <c r="BV8" t="s">
+        <v>237</v>
+      </c>
+      <c r="BW8" t="s">
         <v>238</v>
       </c>
-      <c r="BW8" t="s">
+      <c r="BX8" t="s">
         <v>239</v>
       </c>
-      <c r="BX8" t="s">
-        <v>240</v>
-      </c>
       <c r="BY8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BZ8" t="s">
         <v>121</v>
@@ -3523,7 +3524,7 @@
         <v>29</v>
       </c>
       <c r="CB8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CC8" t="s">
         <v>38</v>
@@ -3532,16 +3533,16 @@
         <v>64</v>
       </c>
       <c r="CF8" t="s">
+        <v>241</v>
+      </c>
+      <c r="CG8" t="s">
         <v>242</v>
       </c>
-      <c r="CG8" t="s">
+      <c r="CH8" t="s">
         <v>243</v>
       </c>
-      <c r="CH8" t="s">
-        <v>244</v>
-      </c>
       <c r="CI8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CJ8" t="s">
         <v>121</v>
@@ -3550,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="CL8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CM8" t="s">
         <v>38</v>
@@ -3559,16 +3560,16 @@
         <v>64</v>
       </c>
       <c r="CP8" t="s">
+        <v>245</v>
+      </c>
+      <c r="CQ8" t="s">
         <v>246</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>247</v>
       </c>
       <c r="CR8" t="s">
         <v>87</v>
       </c>
       <c r="CS8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CT8" t="s">
         <v>121</v>
@@ -3577,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="CV8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CW8" t="s">
         <v>38</v>
@@ -3586,16 +3587,16 @@
         <v>64</v>
       </c>
       <c r="CZ8" t="s">
+        <v>248</v>
+      </c>
+      <c r="DA8" t="s">
         <v>249</v>
       </c>
-      <c r="DA8" t="s">
-        <v>250</v>
-      </c>
       <c r="DB8" t="s">
+        <v>233</v>
+      </c>
+      <c r="DC8" t="s">
         <v>234</v>
-      </c>
-      <c r="DC8" t="s">
-        <v>235</v>
       </c>
       <c r="DD8" t="s">
         <v>121</v>
@@ -3604,7 +3605,7 @@
         <v>29</v>
       </c>
       <c r="DF8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DG8" t="s">
         <v>38</v>
@@ -3613,16 +3614,16 @@
         <v>64</v>
       </c>
       <c r="DJ8" t="s">
+        <v>251</v>
+      </c>
+      <c r="DK8" t="s">
         <v>252</v>
       </c>
-      <c r="DK8" t="s">
+      <c r="DL8" t="s">
         <v>253</v>
       </c>
-      <c r="DL8" t="s">
-        <v>254</v>
-      </c>
       <c r="DM8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="DN8" t="s">
         <v>121</v>
@@ -3631,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="DP8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="DQ8" t="s">
         <v>38</v>
@@ -3640,46 +3641,46 @@
         <v>64</v>
       </c>
       <c r="DT8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DU8" t="s">
         <v>109</v>
       </c>
       <c r="DV8" t="s">
+        <v>256</v>
+      </c>
+      <c r="DW8" t="s">
         <v>257</v>
       </c>
-      <c r="DW8" t="s">
-        <v>258</v>
-      </c>
       <c r="DX8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="DY8" t="s">
         <v>29</v>
       </c>
       <c r="DZ8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EA8" t="s">
         <v>73</v>
       </c>
       <c r="EB8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="EC8" t="s">
         <v>39</v>
       </c>
       <c r="ED8" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>5</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ8" t="s">
         <v>261</v>
-      </c>
-      <c r="EG8" t="s">
-        <v>5</v>
-      </c>
-      <c r="EI8" t="s">
-        <v>5</v>
-      </c>
-      <c r="EJ8" t="s">
-        <v>262</v>
       </c>
       <c r="EK8" t="s">
         <v>18</v>
@@ -3688,7 +3689,7 @@
         <v>18</v>
       </c>
       <c r="EM8" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:143" x14ac:dyDescent="0.25">
@@ -3723,31 +3724,31 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P9" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q9" t="s">
         <v>263</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>264</v>
       </c>
       <c r="T9" t="s">
         <v>12</v>
       </c>
       <c r="U9" t="s">
+        <v>265</v>
+      </c>
+      <c r="W9" t="s">
         <v>266</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>267</v>
-      </c>
-      <c r="X9" t="s">
-        <v>268</v>
       </c>
       <c r="AB9" t="s">
         <v>15</v>
       </c>
       <c r="AC9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD9" t="s">
         <v>18</v>
@@ -3771,7 +3772,7 @@
         <v>19</v>
       </c>
       <c r="AM9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN9" t="s">
         <v>5</v>
@@ -3804,19 +3805,19 @@
         <v>25</v>
       </c>
       <c r="BM9" t="s">
+        <v>270</v>
+      </c>
+      <c r="BN9" t="s">
         <v>271</v>
       </c>
-      <c r="BN9" t="s">
-        <v>272</v>
-      </c>
       <c r="BP9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BQ9" t="s">
         <v>29</v>
       </c>
       <c r="BR9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BS9" t="s">
         <v>31</v>
@@ -3825,25 +3826,25 @@
         <v>64</v>
       </c>
       <c r="BV9" t="s">
+        <v>275</v>
+      </c>
+      <c r="BW9" t="s">
         <v>276</v>
       </c>
-      <c r="BW9" t="s">
+      <c r="BX9" t="s">
         <v>277</v>
       </c>
-      <c r="BX9" t="s">
-        <v>278</v>
-      </c>
       <c r="BY9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BZ9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CA9" t="s">
         <v>29</v>
       </c>
       <c r="CB9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="CC9" t="s">
         <v>38</v>
@@ -3852,7 +3853,7 @@
         <v>44</v>
       </c>
       <c r="CF9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="EG9" t="s">
         <v>5</v>
@@ -3870,7 +3871,7 @@
         <v>18</v>
       </c>
       <c r="EM9" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:143" x14ac:dyDescent="0.25">
@@ -3908,31 +3909,31 @@
         <v>99</v>
       </c>
       <c r="P10" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" t="s">
         <v>281</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>282</v>
       </c>
       <c r="T10" t="s">
         <v>29</v>
       </c>
       <c r="U10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W10" t="s">
         <v>284</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>285</v>
-      </c>
-      <c r="X10" t="s">
-        <v>286</v>
       </c>
       <c r="Y10" t="s">
         <v>32</v>
       </c>
       <c r="Z10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA10" t="s">
         <v>287</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>288</v>
       </c>
       <c r="AB10" t="s">
         <v>15</v>
@@ -3962,7 +3963,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN10" t="s">
         <v>5</v>
@@ -3974,7 +3975,7 @@
         <v>5</v>
       </c>
       <c r="AR10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AS10" t="s">
         <v>22</v>
@@ -4001,19 +4002,19 @@
         <v>142</v>
       </c>
       <c r="BM10" t="s">
+        <v>290</v>
+      </c>
+      <c r="BN10" t="s">
         <v>291</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BP10" t="s">
         <v>292</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>293</v>
       </c>
       <c r="BQ10" t="s">
         <v>12</v>
       </c>
       <c r="BR10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BS10" t="s">
         <v>31</v>
@@ -4022,61 +4023,61 @@
         <v>64</v>
       </c>
       <c r="BV10" t="s">
+        <v>294</v>
+      </c>
+      <c r="BW10" t="s">
         <v>295</v>
       </c>
-      <c r="BW10" t="s">
+      <c r="BX10" t="s">
         <v>296</v>
       </c>
-      <c r="BX10" t="s">
-        <v>297</v>
-      </c>
       <c r="BY10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CA10" t="s">
         <v>12</v>
       </c>
       <c r="CB10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="CC10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CE10" t="s">
         <v>64</v>
       </c>
       <c r="CF10" t="s">
+        <v>298</v>
+      </c>
+      <c r="CG10" t="s">
         <v>299</v>
       </c>
-      <c r="CG10" t="s">
+      <c r="CH10" t="s">
         <v>300</v>
       </c>
-      <c r="CH10" t="s">
+      <c r="CI10" t="s">
         <v>301</v>
       </c>
-      <c r="CI10" t="s">
-        <v>302</v>
-      </c>
       <c r="CJ10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="CK10" t="s">
         <v>29</v>
       </c>
       <c r="CL10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="CM10" t="s">
         <v>73</v>
       </c>
       <c r="CN10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CO10" t="s">
         <v>64</v>
       </c>
       <c r="CP10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="EG10" t="s">
         <v>5</v>
@@ -4085,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="EJ10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="EK10" t="s">
         <v>18</v>
@@ -4094,7 +4095,7 @@
         <v>17</v>
       </c>
       <c r="EM10" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
